--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3185.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3185.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.189843157313083</v>
+        <v>0.9736773371696472</v>
       </c>
       <c r="B1">
-        <v>2.164126032971623</v>
+        <v>1.837080240249634</v>
       </c>
       <c r="C1">
-        <v>7.412546606189393</v>
+        <v>3.23013162612915</v>
       </c>
       <c r="D1">
-        <v>3.407818058675076</v>
+        <v>3.907824516296387</v>
       </c>
       <c r="E1">
-        <v>1.424037904429381</v>
+        <v>0.7555598616600037</v>
       </c>
     </row>
   </sheetData>
